--- a/auto/new_data/7_上海航運交易所_一帶一路貿易額指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_一帶一路貿易額指數.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,19 +434,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>指数/指标</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>本期</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>与上期比涨跌(%)</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>指數名稱</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>指數</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>指數_time</t>
         </is>
       </c>
     </row>
@@ -451,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -468,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -485,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -502,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -519,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -536,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -553,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -570,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -587,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_一帶一路貿易額指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_一帶一路貿易額指數.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>200.67</t>
+          <t>207.42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>407.59</t>
+          <t>423.24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>288.19</t>
+          <t>321.56</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>180.54</t>
+          <t>171.90</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>199.50</t>
+          <t>212.60</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161.97</t>
+          <t>159.45</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>137.34</t>
+          <t>126.45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>237.88</t>
+          <t>231.09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159.73</t>
+          <t>172.91</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_一帶一路貿易額指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_一帶一路貿易額指數.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>207.42</t>
+          <t>199.02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>423.24</t>
+          <t>407.29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>321.56</t>
+          <t>298.41</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>171.90</t>
+          <t>167.56</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>212.60</t>
+          <t>202.84</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159.45</t>
+          <t>150.01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>126.45</t>
+          <t>134.56</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>231.09</t>
+          <t>224.42</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>172.91</t>
+          <t>173.21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_一帶一路貿易額指數.xlsx
+++ b/auto/new_data/7_上海航運交易所_一帶一路貿易額指數.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>199.02</t>
+          <t>214.01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>407.29</t>
+          <t>401.19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>298.41</t>
+          <t>313.77</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>167.56</t>
+          <t>186.12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>202.84</t>
+          <t>223.04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>150.01</t>
+          <t>168.12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>134.56</t>
+          <t>138.96</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>224.42</t>
+          <t>229.31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>173.21</t>
+          <t>176.99</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
